--- a/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
+++ b/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoBRCBbG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{EA6BD118-DE06-4A02-A724-73297FD97A98}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
+    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" activeTab="1" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoBRCBbG" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="SoBRCBbG" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>SoBRCBbG Share of Building Retrofit Costs Borne by Government</t>
   </si>
@@ -46,12 +48,12 @@
     <t>U.S. Department of Energy</t>
   </si>
   <si>
+    <t>Equipment Tax Credits for Primary Residences</t>
+  </si>
+  <si>
     <t>https://www.energystar.gov/about/federal_tax_credits/non_business_energy_property_tax_credits</t>
   </si>
   <si>
-    <t>Equipment Tax Credits for Primary Residences</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -61,15 +63,178 @@
     <t>under the EPS's accelerated building retrofitting policy that will be borne</t>
   </si>
   <si>
+    <t>by the government.  It does not apply to government-owned buildings, where</t>
+  </si>
+  <si>
     <t>government already pays 100% of the retrofit cost.</t>
   </si>
   <si>
-    <t>by the government.  It does not apply to government-owned buildings, where</t>
+    <t>https://www.infrastructure.gc.ca/gicb-bcvi/applicant-guide-demandeur-eng.html?wbdisable=true#retrofits</t>
+  </si>
+  <si>
+    <t>Table 4: Project cost share, by project type and size</t>
+  </si>
+  <si>
+    <t>Total Eligible Project Cost</t>
+  </si>
+  <si>
+    <t>General program</t>
+  </si>
+  <si>
+    <t>(up to % max from program)</t>
+  </si>
+  <si>
+    <t>Retrofits up to $9,999,999</t>
+  </si>
+  <si>
+    <t>Retrofits costs $10,000,000 +</t>
+  </si>
+  <si>
+    <t>New builds up to first $9,999,999 of costs</t>
+  </si>
+  <si>
+    <t>New build costs $10,000,000 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Costs covered up to 100% for Indigenous and territorial projects </t>
+  </si>
+  <si>
+    <t>https://www.nrcan.gc.ca/energy-efficiency/homes/canada-greener-homes-grant/start-your-energy-efficient-retrofits/plan-document-and-complete-your-home-retrofits/eligible-grants-for-my-home-retrofit/23504</t>
+  </si>
+  <si>
+    <t>Canada Greener Homes Grant</t>
+  </si>
+  <si>
+    <r>
+      <t>Home insulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Upgrade your eligible attic, cathedral ceiling, flat roof, exterior wall, exposed floor, basement and crawl space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $5,000</t>
+  </si>
+  <si>
+    <r>
+      <t>Air-sealing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Perform air sealing to improve the airtightness of your home to achieve the air-change rate target.</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $1,000</t>
+  </si>
+  <si>
+    <r>
+      <t>Windows and doors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Replace your doors, windows or sliding glass doors with ENERGY STAR® certified models.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thermostat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Add a smart thermostat to help improve your comfort and save money on your energy bill (must be combined with another energy efficiency retrofit).</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $50</t>
+  </si>
+  <si>
+    <r>
+      <t>Space and water heating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Make the switch to more energy-efficient space heating or water heating equipment to save on your utility bill and reduce your carbon footprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Renewable energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Install a solar photovoltaic system to convert sunlight energy into electricity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resiliency measures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Implement measures to protect your home and family from environmental damages (must be combined with another energy efficiency retrofit).</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $2,625</t>
   </si>
   <si>
     <t>Unit: dimensionless (share of cost)</t>
   </si>
   <si>
+    <t>Government Cost Share</t>
+  </si>
+  <si>
     <t>urban residential</t>
   </si>
   <si>
@@ -77,16 +242,13 @@
   </si>
   <si>
     <t>commercial</t>
-  </si>
-  <si>
-    <t>Government Cost Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +280,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="15"/>
+      <color rgb="FF284162"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,12 +342,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -148,6 +458,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,16 +800,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01810828-2E37-43FF-9A71-F4460C03E7FB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,44 +819,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -532,6 +869,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B502A9-009E-4CDC-BD48-EABDD4E93539}">
+  <dimension ref="B2:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="153.75">
+      <c r="B26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="131.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="109.5">
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="175.5">
+      <c r="B29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="197.25">
+      <c r="B30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="109.5">
+      <c r="B31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="197.25">
+      <c r="B32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="retrofits" xr:uid="{28C8B173-D641-46B0-98DA-9CF7A498C7E9}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{44D783F4-631A-494D-92F6-3A1682DCCBAB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72B00-B157-41C5-B107-14ECB7FAB6F3}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -540,38 +1071,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -580,4 +1111,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612B6B4F-3AB6-4E47-B1A3-26F045AC7BF5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C6C9FE7-C56C-4988-A5E7-33C2B4F70EE6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26144C4-D658-4495-922E-233E23605143}"/>
 </file>
--- a/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
+++ b/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoBRCBbG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{EA6BD118-DE06-4A02-A724-73297FD97A98}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{0994788B-E076-4221-87A9-ACC5A8444063}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" activeTab="1" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
+    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" firstSheet="1" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Greener Homes Grant" sheetId="3" r:id="rId2"/>
     <sheet name="SoBRCBbG" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>SoBRCBbG Share of Building Retrofit Costs Borne by Government</t>
   </si>
@@ -45,13 +45,10 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>Equipment Tax Credits for Primary Residences</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/about/federal_tax_credits/non_business_energy_property_tax_credits</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Proportions were assumed, will be verified through model outputs for total cost covered by subsisidies and Canada Green homes grant value</t>
   </si>
   <si>
     <t>Notes</t>
@@ -67,36 +64,6 @@
   </si>
   <si>
     <t>government already pays 100% of the retrofit cost.</t>
-  </si>
-  <si>
-    <t>https://www.infrastructure.gc.ca/gicb-bcvi/applicant-guide-demandeur-eng.html?wbdisable=true#retrofits</t>
-  </si>
-  <si>
-    <t>Table 4: Project cost share, by project type and size</t>
-  </si>
-  <si>
-    <t>Total Eligible Project Cost</t>
-  </si>
-  <si>
-    <t>General program</t>
-  </si>
-  <si>
-    <t>(up to % max from program)</t>
-  </si>
-  <si>
-    <t>Retrofits up to $9,999,999</t>
-  </si>
-  <si>
-    <t>Retrofits costs $10,000,000 +</t>
-  </si>
-  <si>
-    <t>New builds up to first $9,999,999 of costs</t>
-  </si>
-  <si>
-    <t>New build costs $10,000,000 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Costs covered up to 100% for Indigenous and territorial projects </t>
   </si>
   <si>
     <t>https://www.nrcan.gc.ca/energy-efficiency/homes/canada-greener-homes-grant/start-your-energy-efficient-retrofits/plan-document-and-complete-your-home-retrofits/eligible-grants-for-my-home-retrofit/23504</t>
@@ -248,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,15 +264,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="15"/>
       <color rgb="FF284162"/>
@@ -334,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -357,100 +315,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,26 +328,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01810828-2E37-43FF-9A71-F4460C03E7FB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,60 +677,50 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{E1B5812F-3104-4D2A-8EFF-45948AF0F1E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B502A9-009E-4CDC-BD48-EABDD4E93539}">
-  <dimension ref="B2:C32"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,181 +729,75 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:3" ht="153.75">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="131.25">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="109.5">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="9" t="s">
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="175.5">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="9" spans="2:3" ht="197.25">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="109.5">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="197.25">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="153.75">
-      <c r="B26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="131.25">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="109.5">
-      <c r="B28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="175.5">
-      <c r="B29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="197.25">
-      <c r="B30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="109.5">
-      <c r="B31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="197.25">
-      <c r="B32" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="retrofits" xr:uid="{28C8B173-D641-46B0-98DA-9CF7A498C7E9}"/>
-    <hyperlink ref="B24" r:id="rId2" xr:uid="{44D783F4-631A-494D-92F6-3A1682DCCBAB}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{44D783F4-631A-494D-92F6-3A1682DCCBAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1069,7 +810,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1078,34 +821,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1114,32 +857,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -1385,8 +1102,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612B6B4F-3AB6-4E47-B1A3-26F045AC7BF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26144C4-D658-4495-922E-233E23605143}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,5 +1137,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26144C4-D658-4495-922E-233E23605143}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612B6B4F-3AB6-4E47-B1A3-26F045AC7BF5}"/>
 </file>
--- a/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
+++ b/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoBRCBbG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{107AC2A6-81B2-4E9B-8126-021B7368DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{0994788B-E076-4221-87A9-ACC5A8444063}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
+    <workbookView xWindow="1500" yWindow="75" windowWidth="24090" windowHeight="14700" firstSheet="1" xr2:uid="{B7370FBA-4486-4F99-AF7A-4FA274821588}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoBRCBbG" sheetId="2" r:id="rId2"/>
+    <sheet name="Greener Homes Grant" sheetId="3" r:id="rId2"/>
+    <sheet name="SoBRCBbG" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>SoBRCBbG Share of Building Retrofit Costs Borne by Government</t>
   </si>
@@ -43,13 +45,10 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/about/federal_tax_credits/non_business_energy_property_tax_credits</t>
-  </si>
-  <si>
-    <t>Equipment Tax Credits for Primary Residences</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Proportions were assumed, will be verified through model outputs for total cost covered by subsisidies and Canada Green homes grant value</t>
   </si>
   <si>
     <t>Notes</t>
@@ -61,15 +60,148 @@
     <t>under the EPS's accelerated building retrofitting policy that will be borne</t>
   </si>
   <si>
+    <t>by the government.  It does not apply to government-owned buildings, where</t>
+  </si>
+  <si>
     <t>government already pays 100% of the retrofit cost.</t>
   </si>
   <si>
-    <t>by the government.  It does not apply to government-owned buildings, where</t>
+    <t>https://www.nrcan.gc.ca/energy-efficiency/homes/canada-greener-homes-grant/start-your-energy-efficient-retrofits/plan-document-and-complete-your-home-retrofits/eligible-grants-for-my-home-retrofit/23504</t>
+  </si>
+  <si>
+    <t>Canada Greener Homes Grant</t>
+  </si>
+  <si>
+    <r>
+      <t>Home insulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Upgrade your eligible attic, cathedral ceiling, flat roof, exterior wall, exposed floor, basement and crawl space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $5,000</t>
+  </si>
+  <si>
+    <r>
+      <t>Air-sealing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Perform air sealing to improve the airtightness of your home to achieve the air-change rate target.</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $1,000</t>
+  </si>
+  <si>
+    <r>
+      <t>Windows and doors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Replace your doors, windows or sliding glass doors with ENERGY STAR® certified models.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thermostat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Add a smart thermostat to help improve your comfort and save money on your energy bill (must be combined with another energy efficiency retrofit).</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $50</t>
+  </si>
+  <si>
+    <r>
+      <t>Space and water heating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Make the switch to more energy-efficient space heating or water heating equipment to save on your utility bill and reduce your carbon footprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Renewable energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Install a solar photovoltaic system to convert sunlight energy into electricity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resiliency measures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Implement measures to protect your home and family from environmental damages (must be combined with another energy efficiency retrofit).</t>
+    </r>
+  </si>
+  <si>
+    <t>Up to $2,625</t>
   </si>
   <si>
     <t>Unit: dimensionless (share of cost)</t>
   </si>
   <si>
+    <t>Government Cost Share</t>
+  </si>
+  <si>
     <t>urban residential</t>
   </si>
   <si>
@@ -77,16 +209,13 @@
   </si>
   <si>
     <t>commercial</t>
-  </si>
-  <si>
-    <t>Government Cost Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +247,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="15"/>
+      <color rgb="FF284162"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,12 +300,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -148,6 +328,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,16 +657,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01810828-2E37-43FF-9A71-F4460C03E7FB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,102 +676,466 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B502A9-009E-4CDC-BD48-EABDD4E93539}">
+  <dimension ref="B3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="153.75">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="131.25">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="109.5">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="175.5">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="197.25">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="109.5">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="197.25">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{E1B5812F-3104-4D2A-8EFF-45948AF0F1E7}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{44D783F4-631A-494D-92F6-3A1682DCCBAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF72B00-B157-41C5-B107-14ECB7FAB6F3}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26144C4-D658-4495-922E-233E23605143}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C6C9FE7-C56C-4988-A5E7-33C2B4F70EE6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612B6B4F-3AB6-4E47-B1A3-26F045AC7BF5}"/>
 </file>
--- a/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
+++ b/InputData/bldgs/SoBRCBbG/Shr of Blgd Rtrft Cost Borne by Govt.xlsx
@@ -857,8 +857,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -882,6 +882,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -970,6 +973,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1115,6 +1135,9 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -1129,7 +1152,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C26144C4-D658-4495-922E-233E23605143}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AFC0FC6-39A7-47F3-950D-5416C0E66643}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
